--- a/自己搜集美国.xlsx
+++ b/自己搜集美国.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="11940" tabRatio="874" activeTab="3"/>
+    <workbookView windowWidth="28060" windowHeight="11940" tabRatio="874"/>
   </bookViews>
   <sheets>
     <sheet name="www.swagbucks.com" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219">
   <si>
     <t>5$ =500</t>
   </si>
@@ -499,6 +499,12 @@
   </si>
   <si>
     <t>11219 Babbitt Ave</t>
+  </si>
+  <si>
+    <t>AtchisonjhBairmnb24387@gmail.com</t>
+  </si>
+  <si>
+    <t>Atc!123456</t>
   </si>
   <si>
     <t>Calvin</t>
@@ -1321,7 +1327,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1360,6 +1366,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1721,8 +1730,8 @@
   <sheetPr/>
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -2663,7 +2672,7 @@
       <c r="A30" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="13" t="s">
         <v>152</v>
       </c>
       <c r="C30" s="6">
@@ -2692,8 +2701,12 @@
       <c r="L30" s="1"/>
     </row>
     <row r="31" s="2" customFormat="1" ht="14.2" customHeight="1" spans="1:12">
-      <c r="A31" s="7"/>
-      <c r="B31" s="1"/>
+      <c r="A31" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="C31" s="6">
         <v>31674</v>
       </c>
@@ -2707,13 +2720,13 @@
         <v>90732</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -2735,13 +2748,13 @@
         <v>90002</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -2763,13 +2776,13 @@
         <v>91343</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -2791,13 +2804,13 @@
         <v>90065</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>69</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -2819,13 +2832,13 @@
         <v>91402</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -2850,10 +2863,10 @@
         <v>17</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -2878,10 +2891,10 @@
         <v>138</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -2903,13 +2916,13 @@
         <v>91730</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -2930,13 +2943,13 @@
         <v>91607</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" ht="14.2" customHeight="1" spans="1:9">
@@ -2957,10 +2970,10 @@
         <v>143</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" ht="14.2" customHeight="1" spans="1:9">
@@ -2981,10 +2994,10 @@
         <v>28</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" ht="14.2" customHeight="1" spans="4:9">
@@ -3405,6 +3418,7 @@
     <hyperlink ref="B29" r:id="rId55" display="Gad@123456"/>
     <hyperlink ref="A30" r:id="rId56" display="KilburncliLabradorbyz41545@gmail.com"/>
     <hyperlink ref="B30" r:id="rId57" display="Kil@123456"/>
+    <hyperlink ref="A31" r:id="rId58" display="AtchisonjhBairmnb24387@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -3810,10 +3824,10 @@
     </row>
     <row r="14" s="2" customFormat="1" ht="13" customHeight="1" spans="1:14">
       <c r="A14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C14" s="6">
         <v>31493</v>
@@ -3828,13 +3842,13 @@
         <v>91335</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J14" s="2">
         <v>0.25</v>
@@ -3842,7 +3856,7 @@
       <c r="K14" s="10"/>
       <c r="L14" s="7"/>
       <c r="M14" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N14" s="11"/>
     </row>
@@ -3900,7 +3914,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4277,10 +4291,10 @@
     </row>
     <row r="14" s="2" customFormat="1" ht="13" customHeight="1" spans="1:14">
       <c r="A14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C14" s="6">
         <v>31493</v>
@@ -4295,13 +4309,13 @@
         <v>91335</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J14" s="2">
         <v>10</v>
@@ -4309,7 +4323,7 @@
       <c r="K14" s="10"/>
       <c r="L14" s="7"/>
       <c r="M14" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N14" s="11"/>
     </row>
@@ -4367,7 +4381,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4744,10 +4758,10 @@
     </row>
     <row r="14" s="2" customFormat="1" ht="13" customHeight="1" spans="1:14">
       <c r="A14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C14" s="6">
         <v>31493</v>
@@ -4762,13 +4776,13 @@
         <v>91335</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J14" s="2">
         <v>20</v>
@@ -4776,10 +4790,10 @@
       <c r="K14" s="10"/>
       <c r="L14" s="7"/>
       <c r="M14" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -4836,7 +4850,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -5213,10 +5227,10 @@
     </row>
     <row r="14" s="2" customFormat="1" ht="13" customHeight="1" spans="1:14">
       <c r="A14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C14" s="6">
         <v>31493</v>
@@ -5231,13 +5245,13 @@
         <v>91335</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J14" s="2">
         <v>10</v>
@@ -5245,10 +5259,10 @@
       <c r="K14" s="10"/>
       <c r="L14" s="7"/>
       <c r="M14" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -5680,10 +5694,10 @@
     </row>
     <row r="14" s="2" customFormat="1" ht="13" customHeight="1" spans="1:14">
       <c r="A14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C14" s="6">
         <v>31493</v>
@@ -5698,13 +5712,13 @@
         <v>91335</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J14" s="2">
         <v>10</v>
@@ -5712,10 +5726,10 @@
       <c r="K14" s="10"/>
       <c r="L14" s="7"/>
       <c r="M14" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -6147,10 +6161,10 @@
     </row>
     <row r="14" s="2" customFormat="1" ht="13" customHeight="1" spans="1:14">
       <c r="A14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C14" s="6">
         <v>31493</v>
@@ -6165,21 +6179,21 @@
         <v>91335</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K14" s="10"/>
       <c r="L14" s="7"/>
       <c r="M14" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -6629,10 +6643,10 @@
     </row>
     <row r="14" s="2" customFormat="1" ht="13" customHeight="1" spans="1:14">
       <c r="A14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C14" s="6">
         <v>31493</v>
@@ -6647,13 +6661,13 @@
         <v>91335</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J14" s="2">
         <v>0.2</v>
@@ -6661,10 +6675,10 @@
       <c r="K14" s="10"/>
       <c r="L14" s="7"/>
       <c r="M14" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -6721,7 +6735,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -7098,10 +7112,10 @@
     </row>
     <row r="14" s="2" customFormat="1" ht="13" customHeight="1" spans="1:14">
       <c r="A14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C14" s="6">
         <v>31493</v>
@@ -7116,13 +7130,13 @@
         <v>91335</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J14" s="2">
         <v>5710</v>
@@ -7130,10 +7144,10 @@
       <c r="K14" s="10"/>
       <c r="L14" s="7"/>
       <c r="M14" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -7192,7 +7206,7 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:12">
       <c r="A1" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -7571,10 +7585,10 @@
     </row>
     <row r="14" s="2" customFormat="1" ht="12" customHeight="1" spans="1:14">
       <c r="A14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C14" s="6">
         <v>31493</v>
@@ -7589,13 +7603,13 @@
         <v>91335</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J14" s="2">
         <v>106</v>
@@ -7603,7 +7617,7 @@
       <c r="K14" s="10"/>
       <c r="L14" s="7"/>
       <c r="M14" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N14" s="11"/>
     </row>
@@ -8088,7 +8102,7 @@
   <sheetPr/>
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -8159,7 +8173,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C3" s="6">
         <v>31889</v>
@@ -8481,10 +8495,10 @@
     </row>
     <row r="14" s="2" customFormat="1" ht="12" customHeight="1" spans="1:14">
       <c r="A14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C14" s="6">
         <v>31493</v>
@@ -8499,21 +8513,21 @@
         <v>91335</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K14" s="10"/>
       <c r="L14" s="7"/>
       <c r="M14" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -8570,7 +8584,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -8691,7 +8705,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="16" customHeight="1" spans="1:13">
@@ -8726,7 +8740,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="16" customHeight="1" spans="1:13">
@@ -8761,7 +8775,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="16" customHeight="1" spans="1:13">
@@ -8796,7 +8810,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="16" customHeight="1" spans="1:13">
@@ -8831,7 +8845,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="16" customHeight="1" spans="1:13">
@@ -8866,7 +8880,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="16" customHeight="1" spans="1:13">
@@ -8901,7 +8915,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="16" customHeight="1" spans="1:13">
@@ -8936,7 +8950,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="16" customHeight="1" spans="1:13">
@@ -8971,15 +8985,15 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="12" customHeight="1" spans="1:14">
       <c r="A14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C14" s="6">
         <v>31493</v>
@@ -8994,13 +9008,13 @@
         <v>91335</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J14" s="2">
         <v>4012</v>
@@ -9008,7 +9022,7 @@
       <c r="K14" s="10"/>
       <c r="L14" s="7"/>
       <c r="M14" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N14" s="11"/>
     </row>
@@ -9171,7 +9185,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="16" customHeight="1" spans="1:13">
@@ -9206,7 +9220,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="16" customHeight="1" spans="1:13">
@@ -9241,7 +9255,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="16" customHeight="1" spans="1:13">
@@ -9276,7 +9290,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="16" customHeight="1" spans="1:13">
@@ -9311,7 +9325,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="16" customHeight="1" spans="1:13">
@@ -9346,7 +9360,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="16" customHeight="1" spans="1:13">
@@ -9381,7 +9395,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="16" customHeight="1" spans="1:13">
@@ -9416,7 +9430,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="16" customHeight="1" spans="1:13">
@@ -9451,15 +9465,15 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="12" customHeight="1" spans="1:14">
       <c r="A14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C14" s="6">
         <v>31493</v>
@@ -9474,18 +9488,18 @@
         <v>91335</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K14" s="10"/>
       <c r="L14" s="7"/>
       <c r="M14" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N14" s="11"/>
     </row>
@@ -9538,7 +9552,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -9915,10 +9929,10 @@
     </row>
     <row r="14" s="2" customFormat="1" ht="12" customHeight="1" spans="1:14">
       <c r="A14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C14" s="6">
         <v>31493</v>
@@ -9933,18 +9947,18 @@
         <v>91335</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K14" s="10"/>
       <c r="L14" s="7"/>
       <c r="M14" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N14" s="11"/>
     </row>
@@ -10379,10 +10393,10 @@
     </row>
     <row r="14" s="2" customFormat="1" ht="12" customHeight="1" spans="1:14">
       <c r="A14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C14" s="6">
         <v>31493</v>
@@ -10397,13 +10411,13 @@
         <v>91335</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J14" s="2">
         <v>0.25</v>
@@ -10411,7 +10425,7 @@
       <c r="K14" s="10"/>
       <c r="L14" s="7"/>
       <c r="M14" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N14" s="11"/>
     </row>
@@ -10846,10 +10860,10 @@
     </row>
     <row r="14" s="2" customFormat="1" ht="12" customHeight="1" spans="1:14">
       <c r="A14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C14" s="6">
         <v>31493</v>
@@ -10864,13 +10878,13 @@
         <v>91335</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J14" s="2">
         <v>0.25</v>
@@ -10878,7 +10892,7 @@
       <c r="K14" s="10"/>
       <c r="L14" s="7"/>
       <c r="M14" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N14" s="11"/>
     </row>
